--- a/Planilha_HQs_Export_20260202_163554.xlsx
+++ b/Planilha_HQs_Export_20260202_163554.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guilh\OneDrive\Documentos\GitHub\EstanteDoLeitor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A2700D7-2B62-480C-9FD9-269840D70A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145718E1-55DB-45F9-9F14-D8AEA747A5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -829,10 +829,15 @@
   <dimension ref="A1:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E1" sqref="E1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
